--- a/biology/Biochimie/Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase/Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase.xlsx
+++ b/biology/Biochimie/Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase/Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_4-hydroxyph%C3%A9nylpyruvate_dioxyg%C3%A9nase</t>
+          <t>Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de la 4-hydroxyphénylpyruvate dioxygénase (inhibiteurs de la HPPD) sont une classe d'herbicides qui bloquent la 4-hydroxyphénylpyruvate dioxygénase, enzyme des plantes qui décompose un acide aminé, la tyrosine, en composants permettant de synthétiser d'autres molécules dont les plantes ont besoin.
 Ce processus de dégradation, ou catabolisme, et de synthèse de nouvelles molécules à partir des éléments qui en résultent, ou biosynthèse, est présent chez tous les êtres vivants.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_4-hydroxyph%C3%A9nylpyruvate_dioxyg%C3%A9nase</t>
+          <t>Inhibiteur_de_la_4-hydroxyphénylpyruvate_dioxygénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,16 +529,18 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mécanisme d'action des inhibiteurs de la HPPD était mal compris au moment de leur mise sur le marché, en 1980, et pendant les vingt années qui ont suivi[1].
-On considérait à l'origine qu'il s'agissait d'inhibiteurs de la protoporphyrinogène oxydase (protox)[2].
-La 4-hydroxyphénylpyruvate dioxygénase (HPPD) est une enzyme présente chez les plantes et les animaux qui catalyse le catabolisme d'un acide aminé, la tyrosine[3]. 
-Une moindre dégradation de la tyrosine a trois conséquences négatives chez les plantes : freinage de la croissance par excès de tyrosine, symptômes de stress oxydant en raison du manque de tocophérols (vitamine E) et destruction de la chlorophylle par défaut de caroténoïdes qui la protègent[1]. 
-Les plantes se décolorent sans déformation du fait d'une perte complète de la chlorophylle, ce qui a conduit à classer ces composés comme « herbicides décolorants », à l'instar des inhibiteurs de protox[1],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mécanisme d'action des inhibiteurs de la HPPD était mal compris au moment de leur mise sur le marché, en 1980, et pendant les vingt années qui ont suivi.
+On considérait à l'origine qu'il s'agissait d'inhibiteurs de la protoporphyrinogène oxydase (protox).
+La 4-hydroxyphénylpyruvate dioxygénase (HPPD) est une enzyme présente chez les plantes et les animaux qui catalyse le catabolisme d'un acide aminé, la tyrosine. 
+Une moindre dégradation de la tyrosine a trois conséquences négatives chez les plantes : freinage de la croissance par excès de tyrosine, symptômes de stress oxydant en raison du manque de tocophérols (vitamine E) et destruction de la chlorophylle par défaut de caroténoïdes qui la protègent. 
+Les plantes se décolorent sans déformation du fait d'une perte complète de la chlorophylle, ce qui a conduit à classer ces composés comme « herbicides décolorants », à l'instar des inhibiteurs de protox.
 Plus précisément, l'inhibition de la HPPD empêche la formation d'un produit de dégradation, l'acide homogentisique, qui est un précurseur essentiel de la biosynthèse des tocophérols et de la plastoquinone.
-La plastoquinone est chez les plantes un co-facteur essentiel de la formation des caroténoïdes, qui protègent la chlorophylle de la destruction par la lumière du soleil[3].
-Cette classe d'herbicides est l'une des dernières découvertes d'un nouveau mode d'action herbicide dans la vague de découverte qui a pris fin à la fin des années 1990[2],[6].
+La plastoquinone est chez les plantes un co-facteur essentiel de la formation des caroténoïdes, qui protègent la chlorophylle de la destruction par la lumière du soleil.
+Cette classe d'herbicides est l'une des dernières découvertes d'un nouveau mode d'action herbicide dans la vague de découverte qui a pris fin à la fin des années 1990,.
 </t>
         </is>
       </c>
